--- a/output_baku/unique_destinations_globally.xlsx
+++ b/output_baku/unique_destinations_globally.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>origin_airport</t>
   </si>
@@ -52,6 +52,9 @@
     <t>EGGW</t>
   </si>
   <si>
+    <t>EGKK</t>
+  </si>
+  <si>
     <t>EGLL</t>
   </si>
   <si>
@@ -88,6 +91,12 @@
     <t>LEMG</t>
   </si>
   <si>
+    <t>LFMN</t>
+  </si>
+  <si>
+    <t>LFPG</t>
+  </si>
+  <si>
     <t>LGAV</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t>LLBG</t>
   </si>
   <si>
+    <t>LSGG</t>
+  </si>
+  <si>
     <t>LTAC</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>LTBS</t>
   </si>
   <si>
+    <t>LTFE</t>
+  </si>
+  <si>
     <t>LTFG</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
     <t>OERK</t>
   </si>
   <si>
+    <t>OIII</t>
+  </si>
+  <si>
     <t>OKBK</t>
   </si>
   <si>
@@ -236,6 +254,9 @@
   </si>
   <si>
     <t>UTSB</t>
+  </si>
+  <si>
+    <t>UTTT</t>
   </si>
   <si>
     <t>UUBW</t>
@@ -650,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,10 +789,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-0.377544</v>
+        <v>-0.3683330118656158</v>
       </c>
       <c r="C11">
-        <v>51.873047</v>
+        <v>51.87469863891602</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -779,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-0.461941</v>
+        <v>-0.190278</v>
       </c>
       <c r="C12">
-        <v>51.4706</v>
+        <v>51.148102</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -790,10 +811,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.234999999404</v>
+        <v>-0.461941</v>
       </c>
       <c r="C13">
-        <v>51.8849983215</v>
+        <v>51.4706</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -801,10 +822,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4.76389</v>
+        <v>0.234999999404</v>
       </c>
       <c r="C14">
-        <v>52.308601</v>
+        <v>51.8849983215</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -812,10 +833,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>5.374529838559999</v>
+        <v>4.76389</v>
       </c>
       <c r="C15">
-        <v>51.4500999451</v>
+        <v>52.308601</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -823,10 +844,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-8.92482</v>
+        <v>5.374529838559999</v>
       </c>
       <c r="C16">
-        <v>52.702</v>
+        <v>51.4500999451</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -834,10 +855,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>6.204444400000001</v>
+        <v>-8.92482</v>
       </c>
       <c r="C17">
-        <v>49.6233333</v>
+        <v>52.702</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -845,10 +866,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11.1004</v>
+        <v>6.204444400000001</v>
       </c>
       <c r="C18">
-        <v>60.193901</v>
+        <v>49.6233333</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -856,10 +877,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>23.97109985351562</v>
+        <v>11.1004</v>
       </c>
       <c r="C19">
-        <v>56.92359924316406</v>
+        <v>60.193901</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -867,10 +888,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-87.90479999999999</v>
+        <v>23.97109985351562</v>
       </c>
       <c r="C20">
-        <v>41.9786</v>
+        <v>56.92359924316406</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -878,10 +899,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>33.624901</v>
+        <v>-87.90479999999999</v>
       </c>
       <c r="C21">
-        <v>34.875099</v>
+        <v>41.9786</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -889,10 +910,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>16.0687999725</v>
+        <v>33.624901</v>
       </c>
       <c r="C22">
-        <v>45.74290084840001</v>
+        <v>34.875099</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -900,10 +921,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>-4.49911</v>
+        <v>16.0687999725</v>
       </c>
       <c r="C23">
-        <v>36.6749</v>
+        <v>45.74290084840001</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -911,10 +932,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>23.9445</v>
+        <v>-4.49911</v>
       </c>
       <c r="C24">
-        <v>37.936401</v>
+        <v>36.6749</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -922,10 +943,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>19.261093</v>
+        <v>7.215869903560001</v>
       </c>
       <c r="C25">
-        <v>47.42976</v>
+        <v>43.6584014893</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -933,10 +954,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>8.728110000000001</v>
+        <v>2.55</v>
       </c>
       <c r="C26">
-        <v>45.6306</v>
+        <v>49.012798</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -944,10 +965,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>9.70417</v>
+        <v>23.9445</v>
       </c>
       <c r="C27">
-        <v>45.673901</v>
+        <v>37.936401</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -955,10 +976,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>34.88669967651367</v>
+        <v>19.261093</v>
       </c>
       <c r="C28">
-        <v>32.01139831542969</v>
+        <v>47.42976</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -966,10 +987,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>33.011536</v>
+        <v>8.728110000000001</v>
       </c>
       <c r="C29">
-        <v>40.14624</v>
+        <v>45.6306</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -977,10 +998,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>35.280399</v>
+        <v>9.70417</v>
       </c>
       <c r="C30">
-        <v>36.982201</v>
+        <v>45.673901</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -988,10 +1009,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>30.800501</v>
+        <v>34.88669967651367</v>
       </c>
       <c r="C31">
-        <v>36.898701</v>
+        <v>32.01139831542969</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -999,10 +1020,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>35.494916</v>
+        <v>6.108950138092041</v>
       </c>
       <c r="C32">
-        <v>38.770248</v>
+        <v>46.23809814453125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1010,10 +1031,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>28.823714</v>
+        <v>33.011536</v>
       </c>
       <c r="C33">
-        <v>40.971913</v>
+        <v>40.14624</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1021,10 +1042,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>27.157</v>
+        <v>35.280399</v>
       </c>
       <c r="C34">
-        <v>38.2924</v>
+        <v>36.982201</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1032,10 +1053,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>28.7924995422</v>
+        <v>30.800501</v>
       </c>
       <c r="C35">
-        <v>36.7131004333</v>
+        <v>36.898701</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1043,10 +1064,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>32.412707</v>
+        <v>35.494916</v>
       </c>
       <c r="C36">
-        <v>36.208237</v>
+        <v>38.770248</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1054,10 +1075,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>29.3092</v>
+        <v>28.823714</v>
       </c>
       <c r="C37">
-        <v>40.898602</v>
+        <v>40.971913</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1065,10 +1086,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>28.741951</v>
+        <v>27.157</v>
       </c>
       <c r="C38">
-        <v>41.261297</v>
+        <v>38.2924</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1076,10 +1097,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>20.3090991974</v>
+        <v>28.7924995422</v>
       </c>
       <c r="C39">
-        <v>44.8184013367</v>
+        <v>36.7131004333</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1087,10 +1108,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>17.21269989013672</v>
+        <v>27.6643009186</v>
       </c>
       <c r="C40">
-        <v>48.17020034790039</v>
+        <v>37.25059890749999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1098,10 +1119,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>50.63764</v>
+        <v>32.412707</v>
       </c>
       <c r="C41">
-        <v>26.267295</v>
+        <v>36.208237</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1109,10 +1130,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>49.79790115356445</v>
+        <v>29.3092</v>
       </c>
       <c r="C42">
-        <v>26.47120094299316</v>
+        <v>40.898602</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1120,10 +1141,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>39.156502</v>
+        <v>28.741951</v>
       </c>
       <c r="C43">
-        <v>21.6796</v>
+        <v>41.261297</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1131,10 +1152,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>46.69879913330078</v>
+        <v>20.3090991974</v>
       </c>
       <c r="C44">
-        <v>24.95759963989257</v>
+        <v>44.8184013367</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1142,10 +1163,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>47.96889877319336</v>
+        <v>17.21269989013672</v>
       </c>
       <c r="C45">
-        <v>29.22660064697266</v>
+        <v>48.17020034790039</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1153,10 +1174,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>54.651718</v>
+        <v>50.63764</v>
       </c>
       <c r="C46">
-        <v>24.443764</v>
+        <v>26.267295</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1164,10 +1185,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>55.3643989563</v>
+        <v>49.79790115356445</v>
       </c>
       <c r="C47">
-        <v>25.2527999878</v>
+        <v>26.47120094299316</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1175,10 +1196,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>55.161389</v>
+        <v>39.156502</v>
       </c>
       <c r="C48">
-        <v>24.896356</v>
+        <v>21.6796</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1186,10 +1207,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>55.5172004699707</v>
+        <v>46.69879913330078</v>
       </c>
       <c r="C49">
-        <v>25.32859992980957</v>
+        <v>24.95759963989257</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1197,10 +1218,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>72.66500091552734</v>
+        <v>51.322861</v>
       </c>
       <c r="C50">
-        <v>32.04859924316406</v>
+        <v>35.687622</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1208,10 +1229,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>43.96319961547852</v>
+        <v>47.96889877319336</v>
       </c>
       <c r="C51">
-        <v>36.23759841918945</v>
+        <v>29.22660064697266</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1219,10 +1240,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>51.608056</v>
+        <v>54.651718</v>
       </c>
       <c r="C52">
-        <v>25.273056</v>
+        <v>24.443764</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1230,10 +1251,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>140.386002</v>
+        <v>55.3643989563</v>
       </c>
       <c r="C53">
-        <v>35.764702</v>
+        <v>25.2527999878</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1241,10 +1262,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>135.244003</v>
+        <v>55.161389</v>
       </c>
       <c r="C54">
-        <v>34.427299</v>
+        <v>24.896356</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1252,10 +1273,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>126.4509963989258</v>
+        <v>55.5172004699707</v>
       </c>
       <c r="C55">
-        <v>37.46910095214844</v>
+        <v>25.32859992980957</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1263,10 +1284,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>77.06150700000001</v>
+        <v>72.66500091552734</v>
       </c>
       <c r="C56">
-        <v>43.364822</v>
+        <v>32.04859924316406</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1274,10 +1295,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>50.04669952392578</v>
+        <v>43.96319961547852</v>
       </c>
       <c r="C57">
-        <v>40.46749877929688</v>
+        <v>36.23759841918945</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1285,10 +1306,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>74.47760009770001</v>
+        <v>51.608056</v>
       </c>
       <c r="C58">
-        <v>43.0612983704</v>
+        <v>25.273056</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1296,10 +1317,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>44.95470047</v>
+        <v>140.386002</v>
       </c>
       <c r="C59">
-        <v>41.6692008972</v>
+        <v>35.764702</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1307,10 +1328,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>30.89469909667969</v>
+        <v>135.244003</v>
       </c>
       <c r="C60">
-        <v>50.34500122070313</v>
+        <v>34.427299</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1318,10 +1339,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>30.26250076293945</v>
+        <v>126.4509963989258</v>
       </c>
       <c r="C61">
-        <v>59.80030059814453</v>
+        <v>37.46910095214844</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1329,10 +1350,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>28.039964</v>
+        <v>77.06150700000001</v>
       </c>
       <c r="C62">
-        <v>53.888071</v>
+        <v>43.364822</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1340,10 +1361,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>92.492437</v>
+        <v>50.04669952392578</v>
       </c>
       <c r="C63">
-        <v>56.173077</v>
+        <v>40.46749877929688</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1351,10 +1372,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>82.618675</v>
+        <v>74.47760009770001</v>
       </c>
       <c r="C64">
-        <v>55.01975600000001</v>
+        <v>43.0612983704</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1362,10 +1383,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>39.170501708984</v>
+        <v>44.95470047</v>
       </c>
       <c r="C65">
-        <v>45.034698486328</v>
+        <v>41.6692008972</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1373,10 +1394,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>43.08190155029297</v>
+        <v>30.89469909667969</v>
       </c>
       <c r="C66">
-        <v>44.22510147094727</v>
+        <v>50.34500122070313</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1384,10 +1405,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>39.924722</v>
+        <v>30.26250076293945</v>
       </c>
       <c r="C67">
-        <v>47.493888</v>
+        <v>59.80030059814453</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1395,10 +1416,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>48.0063018799</v>
+        <v>28.039964</v>
       </c>
       <c r="C68">
-        <v>46.2832984924</v>
+        <v>53.888071</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1406,10 +1427,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>44.34550094604492</v>
+        <v>92.492437</v>
       </c>
       <c r="C69">
-        <v>48.78250122070313</v>
+        <v>56.173077</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1417,10 +1438,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>56.021198</v>
+        <v>82.618675</v>
       </c>
       <c r="C70">
-        <v>57.914501</v>
+        <v>55.01975600000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1428,10 +1449,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>60.802700042725</v>
+        <v>39.170501708984</v>
       </c>
       <c r="C71">
-        <v>56.743099212646</v>
+        <v>45.034698486328</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1439,10 +1460,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>65.3243026733</v>
+        <v>43.08190155029297</v>
       </c>
       <c r="C72">
-        <v>57.1896018982</v>
+        <v>44.22510147094727</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1450,10 +1471,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>64.483299</v>
+        <v>39.924722</v>
       </c>
       <c r="C73">
-        <v>39.775002</v>
+        <v>47.493888</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1461,10 +1482,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>38.150002</v>
+        <v>48.0063018799</v>
       </c>
       <c r="C74">
-        <v>55.553299</v>
+        <v>46.2832984924</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1472,10 +1493,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>37.90629959106445</v>
+        <v>44.34550094604492</v>
       </c>
       <c r="C75">
-        <v>55.40879821777344</v>
+        <v>48.78250122070313</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1483,10 +1504,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>37.4146</v>
+        <v>56.021198</v>
       </c>
       <c r="C76">
-        <v>55.972599</v>
+        <v>57.914501</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1494,10 +1515,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>39.22959899902344</v>
+        <v>60.802700042725</v>
       </c>
       <c r="C77">
-        <v>51.81420135498047</v>
+        <v>56.743099212646</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1505,10 +1526,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>37.2615013123</v>
+        <v>65.3243026733</v>
       </c>
       <c r="C78">
-        <v>55.5914993286</v>
+        <v>57.1896018982</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1516,10 +1537,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>43.784000396729</v>
+        <v>64.483299</v>
       </c>
       <c r="C79">
-        <v>56.23009872436499</v>
+        <v>39.775002</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1527,10 +1548,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>49.278701782227</v>
+        <v>69.258667</v>
       </c>
       <c r="C80">
-        <v>55.606201171875</v>
+        <v>41.256088</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1538,10 +1559,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>55.874401092529</v>
+        <v>38.150002</v>
       </c>
       <c r="C81">
-        <v>54.55749893188501</v>
+        <v>55.553299</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1549,10 +1570,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>50.16429901123</v>
+        <v>37.90629959106445</v>
       </c>
       <c r="C82">
-        <v>53.504901885986</v>
+        <v>55.40879821777344</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1560,10 +1581,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>72.8678970337</v>
+        <v>37.4146</v>
       </c>
       <c r="C83">
-        <v>19.0886993408</v>
+        <v>55.972599</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1571,10 +1592,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>90.397783</v>
+        <v>39.22959899902344</v>
       </c>
       <c r="C84">
-        <v>23.843347</v>
+        <v>51.81420135498047</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1582,10 +1603,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>113.915001</v>
+        <v>37.2615013123</v>
       </c>
       <c r="C85">
-        <v>22.308901</v>
+        <v>55.5914993286</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1593,10 +1614,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>77.103104</v>
+        <v>43.784000396729</v>
       </c>
       <c r="C86">
-        <v>28.5665</v>
+        <v>56.23009872436499</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1604,10 +1625,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>105.806999</v>
+        <v>49.278701782227</v>
       </c>
       <c r="C87">
-        <v>21.221201</v>
+        <v>55.606201171875</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1615,10 +1636,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>106.652</v>
+        <v>55.874401092529</v>
       </c>
       <c r="C88">
-        <v>10.8188</v>
+        <v>54.55749893188501</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1626,10 +1647,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>103.994003</v>
+        <v>50.16429901123</v>
       </c>
       <c r="C89">
-        <v>1.35019</v>
+        <v>53.504901885986</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1637,10 +1658,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>116.5849990844727</v>
+        <v>72.8678970337</v>
       </c>
       <c r="C90">
-        <v>40.0801010131836</v>
+        <v>19.0886993408</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1648,10 +1669,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>113.849165</v>
+        <v>90.397783</v>
       </c>
       <c r="C91">
-        <v>34.526497</v>
+        <v>23.843347</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1659,9 +1680,86 @@
         <v>92</v>
       </c>
       <c r="B92">
+        <v>113.915001</v>
+      </c>
+      <c r="C92">
+        <v>22.308901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>77.103104</v>
+      </c>
+      <c r="C93">
+        <v>28.5665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>105.806999</v>
+      </c>
+      <c r="C94">
+        <v>21.221201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>106.652</v>
+      </c>
+      <c r="C95">
+        <v>10.8188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>103.994003</v>
+      </c>
+      <c r="C96">
+        <v>1.35019</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>116.5849990844727</v>
+      </c>
+      <c r="C97">
+        <v>40.0801010131836</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>113.849165</v>
+      </c>
+      <c r="C98">
+        <v>34.526497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
         <v>121.805</v>
       </c>
-      <c r="C92">
+      <c r="C99">
         <v>31.1434</v>
       </c>
     </row>
